--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3560076666666667</v>
+        <v>0.1885723333333333</v>
       </c>
       <c r="H2">
-        <v>1.068023</v>
+        <v>0.565717</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4542203333333334</v>
+        <v>0.3478976666666666</v>
       </c>
       <c r="N2">
-        <v>1.362661</v>
+        <v>1.043693</v>
       </c>
       <c r="O2">
-        <v>0.1958888190241419</v>
+        <v>0.172630997073507</v>
       </c>
       <c r="P2">
-        <v>0.1958888190241419</v>
+        <v>0.172630997073507</v>
       </c>
       <c r="Q2">
-        <v>0.1617059210225556</v>
+        <v>0.06560387476455555</v>
       </c>
       <c r="R2">
-        <v>1.455353289203</v>
+        <v>0.5904348728809999</v>
       </c>
       <c r="S2">
-        <v>0.1958888190241419</v>
+        <v>0.172630997073507</v>
       </c>
       <c r="T2">
-        <v>0.1958888190241419</v>
+        <v>0.172630997073507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3560076666666667</v>
+        <v>0.1885723333333333</v>
       </c>
       <c r="H3">
-        <v>1.068023</v>
+        <v>0.565717</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.358150333333334</v>
+        <v>1.358150333333333</v>
       </c>
       <c r="N3">
-        <v>4.074451000000001</v>
+        <v>4.074451</v>
       </c>
       <c r="O3">
-        <v>0.5857211695071144</v>
+        <v>0.6739304936002712</v>
       </c>
       <c r="P3">
-        <v>0.5857211695071144</v>
+        <v>0.6739304936002711</v>
       </c>
       <c r="Q3">
-        <v>0.4835119311525556</v>
+        <v>0.2561095773741111</v>
       </c>
       <c r="R3">
-        <v>4.351607380373</v>
+        <v>2.304986196367</v>
       </c>
       <c r="S3">
-        <v>0.5857211695071144</v>
+        <v>0.6739304936002712</v>
       </c>
       <c r="T3">
-        <v>0.5857211695071144</v>
+        <v>0.6739304936002711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3560076666666667</v>
+        <v>0.1885723333333333</v>
       </c>
       <c r="H4">
-        <v>1.068023</v>
+        <v>0.565717</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5063953333333333</v>
+        <v>0.3092196666666667</v>
       </c>
       <c r="N4">
-        <v>1.519186</v>
+        <v>0.927659</v>
       </c>
       <c r="O4">
-        <v>0.2183900114687438</v>
+        <v>0.1534385093262219</v>
       </c>
       <c r="P4">
-        <v>0.2183900114687438</v>
+        <v>0.1534385093262219</v>
       </c>
       <c r="Q4">
-        <v>0.1802806210308889</v>
+        <v>0.05831027405588889</v>
       </c>
       <c r="R4">
-        <v>1.622525589278</v>
+        <v>0.524792466503</v>
       </c>
       <c r="S4">
-        <v>0.2183900114687438</v>
+        <v>0.1534385093262219</v>
       </c>
       <c r="T4">
-        <v>0.2183900114687438</v>
+        <v>0.1534385093262219</v>
       </c>
     </row>
   </sheetData>
